--- a/Mechanical/Differential Pivot/Differential Pivot Parts List.xlsx
+++ b/Mechanical/Differential Pivot/Differential Pivot Parts List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open_source_rover\Documentation\Mechanical Assembly\Differential Pivot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\osr\Mechanical\Differential Pivot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
   <si>
     <t>#6-32 x 1.25 Screw</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
+  </si>
+  <si>
+    <t>Author: Eric Junkins, Jet Propulsion Laboratory, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -324,11 +333,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -413,10 +440,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,465 +745,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="188.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="21.86328125" customWidth="1"/>
+    <col min="11" max="11" width="188.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+    </row>
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" ht="36.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B5" s="18">
         <v>50</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C5" s="18">
         <v>8</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D5" s="19">
         <v>50</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I5" s="11">
         <v>6.16</v>
       </c>
-      <c r="J2" s="11">
-        <f t="shared" ref="J2:J7" si="0">B2/D2*I2</f>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J10" si="0">B5/D5*I5</f>
         <v>6.16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B6" s="18">
         <v>100</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C6" s="18">
         <v>4</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D6" s="19">
         <v>100</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I6" s="11">
         <v>8.34</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
         <v>8.34</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18">
-        <v>1</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I7" s="11">
         <v>22.57</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>22.57</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G8" s="24">
         <v>635254</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I8" s="11">
         <v>2.09</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
         <v>8.36</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I9" s="11">
         <v>9.25</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B10" s="18">
         <v>100</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C10" s="18">
         <v>24</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D10" s="19">
         <v>100</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I10" s="11">
         <v>1.4</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J10" s="11">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G11" s="23">
         <v>545600</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I11" s="15">
         <v>5.99</v>
       </c>
-      <c r="J8" s="15">
-        <f>B8/D8*I8</f>
+      <c r="J11" s="15">
+        <f>B11/D11*I11</f>
         <v>5.99</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K11" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G12" s="23">
         <v>585468</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I12" s="15">
         <v>1.29</v>
       </c>
-      <c r="J9" s="15">
-        <f>B9/D9*I9</f>
+      <c r="J12" s="15">
+        <f>B12/D12*I12</f>
         <v>1.29</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C13" s="20">
         <v>2</v>
       </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G13" s="23">
         <v>585546</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I13" s="15">
         <v>5.99</v>
       </c>
-      <c r="J10" s="15">
-        <f>B10/D10*I10</f>
+      <c r="J13" s="15">
+        <f>B13/D13*I13</f>
         <v>11.98</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B14" s="18">
         <v>8</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C14" s="18">
         <v>8</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D14" s="29">
         <v>2</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G14" s="22">
         <v>585404</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I14" s="26">
         <v>2.39</v>
       </c>
-      <c r="J11" s="26">
-        <f>B11/D11*I11</f>
+      <c r="J14" s="26">
+        <f>B14/D14*I14</f>
         <v>9.56</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="31">
-        <f>SUM(J2:J11)</f>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J17" s="30">
+        <f>SUM(J5:J14)</f>
         <v>84.9</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:K17"/>
+  <mergeCells count="2">
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="92196A032"/>
-    <hyperlink ref="K4" r:id="rId2" location="9056K66"/>
-    <hyperlink ref="K5" r:id="rId3" location="371=455"/>
-    <hyperlink ref="K6" r:id="rId4"/>
-    <hyperlink ref="K7" r:id="rId5" location="92141A005"/>
-    <hyperlink ref="K9" r:id="rId6"/>
-    <hyperlink ref="K10" r:id="rId7"/>
-    <hyperlink ref="K8" r:id="rId8" location="348=107"/>
-    <hyperlink ref="K11" r:id="rId9"/>
+    <hyperlink ref="K6" r:id="rId1" location="92196A032"/>
+    <hyperlink ref="K7" r:id="rId2" location="9056K66"/>
+    <hyperlink ref="K8" r:id="rId3" location="371=455"/>
+    <hyperlink ref="K9" r:id="rId4"/>
+    <hyperlink ref="K10" r:id="rId5" location="92141A005"/>
+    <hyperlink ref="K12" r:id="rId6"/>
+    <hyperlink ref="K13" r:id="rId7"/>
+    <hyperlink ref="K11" r:id="rId8" location="348=107"/>
+    <hyperlink ref="K14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
